--- a/输入表.xlsx
+++ b/输入表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liq32\Desktop\IT\2307_SU_Ruby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liq32\Desktop\IT\2401_real-estate-project-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,15 +23,139 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+  <si>
+    <t>表单输入</t>
+  </si>
+  <si>
+    <t>地价付款节奏</t>
+  </si>
+  <si>
+    <t>营销费用占销售额（含税）比例</t>
+  </si>
+  <si>
+    <t>管理费用占销售额（含税）总比例</t>
+  </si>
+  <si>
+    <t>容积率</t>
+  </si>
+  <si>
+    <t>基础信息</t>
+  </si>
+  <si>
+    <t>经济指标</t>
+  </si>
+  <si>
+    <t>预计税费情况</t>
+  </si>
+  <si>
+    <t>增值税附加税</t>
+  </si>
+  <si>
+    <t>所得税预征收毛利率</t>
+  </si>
+  <si>
+    <t>企业所得税</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>分摊前地下基准成本</t>
+  </si>
+  <si>
+    <t>土地及政府规费</t>
+  </si>
+  <si>
+    <t>按月%</t>
+  </si>
+  <si>
+    <t>分楼型</t>
+  </si>
+  <si>
+    <t>产品土地地价外基准成本</t>
+  </si>
+  <si>
+    <t>图纸钩稽关系检查</t>
+  </si>
+  <si>
+    <t>计容可售面积</t>
+  </si>
+  <si>
+    <t>其中住宅</t>
+  </si>
+  <si>
+    <t>其中商业</t>
+  </si>
+  <si>
+    <t>不可售计容配套面积</t>
+  </si>
+  <si>
+    <t>*简便算法使用</t>
+  </si>
+  <si>
+    <t>不可售计容配套地价外成本付款节奏</t>
+  </si>
+  <si>
+    <t>不可售计容配套地价外总成本</t>
+  </si>
+  <si>
+    <t>每平米</t>
+  </si>
+  <si>
+    <t>土地增值税预缴率</t>
+  </si>
+  <si>
+    <t>*用于检查图上面积</t>
+  </si>
+  <si>
+    <t>*为了简化，不需要在图上计算</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,15 +175,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -337,12 +485,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="21">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="21">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2.4782375173565767E-3</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="21">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="21">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>